--- a/src/main/resources/upc_data_template.xlsx
+++ b/src/main/resources/upc_data_template.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17160" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="5680" yWindow="460" windowWidth="28720" windowHeight="17160" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Offer" sheetId="3" r:id="rId3"/>
+    <sheet name="offer" sheetId="3" r:id="rId3"/>
     <sheet name="product" sheetId="7" r:id="rId4"/>
     <sheet name="service" sheetId="8" r:id="rId5"/>
   </sheets>
@@ -77,8 +77,164 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+Dependent
+Mutually exclusive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>WEB</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -226,12 +382,71 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related Services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automate_test_excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSLSERV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related Characteristic Specification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dependent</t>
+  </si>
+  <si>
+    <t>zhoufan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,6 +555,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -421,7 +641,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,25 +666,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,20 +709,50 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="35">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -525,6 +774,20 @@
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -802,7 +1065,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -811,336 +1074,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1161,129 +1424,129 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="58.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="6">
         <v>123456</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1331,14 +1594,193 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="24">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
+        <v>852</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="15">
+        <v>4</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
+        <v>6</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
+        <v>7</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="15">
+        <v>8</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="15">
+        <v>9</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/upc_data_template.xlsx
+++ b/src/main/resources/upc_data_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="460" windowWidth="28720" windowHeight="17160" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17160" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>WEB</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -438,7 +438,7 @@
     <t>Dependent</t>
   </si>
   <si>
-    <t>zhoufan</t>
+    <t>linxiaocui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +446,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -560,6 +563,11 @@
       <color theme="1"/>
       <name val="宋体 (正文)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -681,7 +689,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -718,14 +726,17 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -745,10 +756,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,336 +1085,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1424,7 +1435,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1438,13 +1449,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1513,10 +1524,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
     </row>
     <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
@@ -1595,69 +1606,69 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="14" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="25">
         <v>-1</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
@@ -1670,7 +1681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -1679,7 +1690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>2</v>
       </c>
@@ -1688,7 +1699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>852</v>
       </c>
@@ -1697,7 +1708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -1707,13 +1718,13 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
@@ -1724,49 +1735,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="15">
-        <v>4</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>2222222014</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
-        <v>5</v>
+        <v>262100000011</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="15">
-        <v>6</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="15">
-        <v>7</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="15">
-        <v>8</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="15">
-        <v>9</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/src/main/resources/upc_data_template.xlsx
+++ b/src/main/resources/upc_data_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17160" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17160" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -233,8 +233,164 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+Dependent
+Mutually exclusive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>WEB</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -439,6 +595,26 @@
   </si>
   <si>
     <t>linxiaocui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSLPROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related Products</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +825,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -688,8 +864,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -738,6 +915,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,7 +946,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="36">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -799,6 +982,7 @@
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1085,336 +1269,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1449,13 +1633,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1524,10 +1708,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
@@ -1592,15 +1776,166 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="27">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
+        <v>852</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>151400000111</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15">
+        <v>25042018</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1608,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -1621,54 +1956,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="27">
         <v>-1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
@@ -1718,11 +2053,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">

--- a/src/main/resources/upc_data_template.xlsx
+++ b/src/main/resources/upc_data_template.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25711"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoufan/Code/TRIS/src/main/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17160" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="84" yWindow="456" windowWidth="16608" windowHeight="9432" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,9 @@
     <sheet name="offer" sheetId="3" r:id="rId3"/>
     <sheet name="product" sheetId="7" r:id="rId4"/>
     <sheet name="service" sheetId="8" r:id="rId5"/>
+    <sheet name="offerGroup" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -389,8 +385,139 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+Dependent
+Mutually exclusive</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>WEB</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -518,7 +645,7 @@
       <rPr>
         <sz val="28"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -617,26 +744,62 @@
     <t>Related Products</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Product Offering Group Name</t>
+  </si>
+  <si>
+    <t>Subscribe Quantity Restriction</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Description Customer</t>
+  </si>
+  <si>
+    <t>Mutually Exclusive</t>
+  </si>
+  <si>
+    <t>Mutual Conversion Type</t>
+  </si>
+  <si>
+    <t>Related Offer</t>
+  </si>
+  <si>
+    <t>tianhj</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Offering Group ID</t>
+  </si>
+  <si>
+    <t>Mobile Voice B2C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -650,7 +813,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -659,7 +822,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -699,7 +862,7 @@
     <font>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -866,7 +1029,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -903,23 +1066,26 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -939,10 +1105,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,7 +1203,7 @@
     </a:clrScheme>
     <a:fontScheme name="办公室">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1072,7 +1238,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1249,356 +1415,356 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="22" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1"/>
+    <row r="28" spans="1:11">
+      <c r="A28" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1615,33 +1781,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="58.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="23.19921875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="22.95" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="39" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1673,7 +1839,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1690,7 +1856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="27" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1707,13 +1873,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:5" ht="22.05" customHeight="1">
+      <c r="A10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.05" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
@@ -1721,7 +1887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="28.05" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="25.95" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1737,7 +1903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="31.05" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -1761,14 +1927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1776,71 +1942,71 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.296875" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="21.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:3" ht="27" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" ht="28.05" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" ht="39" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="1:3" ht="34.950000000000003" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="28">
         <v>-1</v>
       </c>
-      <c r="C4" s="27"/>
-    </row>
-    <row r="5" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:3" ht="34.950000000000003" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="27"/>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
+      <c r="C5" s="28"/>
+    </row>
+    <row r="6" spans="1:3" ht="27" customHeight="1">
+      <c r="A6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-    </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>35</v>
       </c>
@@ -1851,7 +2017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="27" customHeight="1">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -1860,7 +2026,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="22.05" customHeight="1">
       <c r="A9" s="15">
         <v>2</v>
       </c>
@@ -1869,7 +2035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="22.05" customHeight="1">
       <c r="A10" s="15">
         <v>852</v>
       </c>
@@ -1878,7 +2044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -1887,14 +2053,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:3" ht="28.95" customHeight="1">
+      <c r="A12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.95" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>35</v>
       </c>
@@ -1905,7 +2071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="28.05" customHeight="1">
       <c r="A14" s="19">
         <v>151400000111</v>
       </c>
@@ -1914,7 +2080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="34.950000000000003" customHeight="1">
       <c r="A15" s="15">
         <v>25042018</v>
       </c>
@@ -1940,72 +2106,72 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="25.296875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="14" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="4" max="16384" width="10.796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" ht="28.05" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.95" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.05" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="28">
         <v>-1</v>
       </c>
-      <c r="C4" s="27"/>
-    </row>
-    <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:3" ht="28.95" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="27"/>
-    </row>
-    <row r="6" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
+      <c r="C5" s="28"/>
+    </row>
+    <row r="6" spans="1:3" ht="25.05" customHeight="1">
+      <c r="A6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
@@ -2016,7 +2182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="22.05" customHeight="1">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -2025,7 +2191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="22.95" customHeight="1">
       <c r="A9" s="15">
         <v>2</v>
       </c>
@@ -2034,7 +2200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="22.05" customHeight="1">
       <c r="A10" s="15">
         <v>852</v>
       </c>
@@ -2043,7 +2209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="27" customHeight="1">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -2052,14 +2218,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:3" ht="25.05" customHeight="1">
+      <c r="A12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.05" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
@@ -2070,7 +2236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="22.05" customHeight="1">
       <c r="A14" s="17">
         <v>2222222014</v>
       </c>
@@ -2079,7 +2245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="A15" s="15">
         <v>262100000011</v>
       </c>
@@ -2103,4 +2269,147 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="28">
+        <v>30207</v>
+      </c>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="28">
+        <v>10</v>
+      </c>
+      <c r="C5" s="28"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="28"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="28"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15">
+        <v>95042611</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>